--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_21_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1292157.289701708</v>
+        <v>1377439.351166254</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>4171427.157673264</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9493883.598041473</v>
+        <v>9493883.598041475</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9311922907016</v>
+        <v>153.807238032413</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
@@ -789,16 +791,16 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>77.75788252862044</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>26.39608472807594</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>23.43375830553086</v>
@@ -862,25 +864,25 @@
         <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663198</v>
+        <v>81.99736039359004</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5.573327086027464</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>82.55400685770206</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>60.54671305175838</v>
+        <v>133.4083737866023</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>216.8942288979679</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.35751071414622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +992,10 @@
         <v>135.568165595806</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.08928567761467</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>28.27158985086012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>138.7067944022645</v>
+        <v>90.81532639346672</v>
       </c>
       <c r="T6" t="n">
         <v>193.0088160174318</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5025842422711</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.9939868380618</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>110.3697346074944</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>77.10262985335484</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>286.2378441683352</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.4820150738526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>195.6742208912075</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>101.6181953608731</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>143.9129869671218</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>46.08627027009007</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>111.4702381038692</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>242.8528437613028</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285925</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.32117841962396</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>84.22290965229026</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.6898441249713</v>
+        <v>74.75769145492426</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>242.8528437613041</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.099193441181727</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2056,13 +2058,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>83.92199106062637</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>163.4808009529179</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>57.92518451681179</v>
+        <v>42.64559995940451</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2144,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>245.5774513637167</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>242.8528437613041</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>54.26003672910085</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>29.96577427265899</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>303.5173063788875</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>16.34825474388459</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>218.6097747675226</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.67976296843037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>85.17289288835124</v>
+        <v>256.8241943842555</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>105.0076120744434</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>186.6141597285332</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>168.1158122680966</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>27.19292662790667</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.069702148647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3272,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>201.8731589524259</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>84.36427925043549</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>111.9183583614281</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3472,25 +3474,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>87.83762944231071</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>288.2822493900547</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>80.05671066664262</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>127.3165365479895</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>217.091419992848</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>74.98619773129222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>85.48001049171529</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>181.4742867558202</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>69.25160695998036</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3983,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>360.731767317496</v>
       </c>
       <c r="H44" t="n">
-        <v>181.7594728473256</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>79.49505480544691</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>70.93341719265695</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738.6222485201466</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738.6222485201466</v>
+      </c>
+      <c r="D2" t="n">
+        <v>738.6222485201466</v>
+      </c>
+      <c r="E2" t="n">
         <v>549.2024635036619</v>
       </c>
-      <c r="C2" t="n">
-        <v>549.2024635036619</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>359.7826784871772</v>
       </c>
-      <c r="E2" t="n">
-        <v>170.3628934706925</v>
-      </c>
-      <c r="F2" t="n">
-        <v>163.417392721489</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4331,10 +4333,10 @@
         <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644756</v>
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
       <c r="C3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
       <c r="D3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
       <c r="E3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
       <c r="F3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
         <v>166.133934959413</v>
@@ -4419,10 +4421,10 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017059</v>
@@ -4437,22 +4439,22 @@
         <v>571.6362168389237</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389237</v>
+        <v>382.216431822439</v>
       </c>
       <c r="U3" t="n">
-        <v>493.0929011534485</v>
+        <v>192.7966468059543</v>
       </c>
       <c r="V3" t="n">
-        <v>493.0929011534485</v>
+        <v>166.133934959413</v>
       </c>
       <c r="W3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
       <c r="X3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
       <c r="Y3" t="n">
-        <v>303.6731161369638</v>
+        <v>166.133934959413</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818524</v>
+        <v>482.2514165952055</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818524</v>
+        <v>482.2514165952055</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818524</v>
+        <v>482.2514165952055</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818524</v>
+        <v>334.3383230128123</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818524</v>
+        <v>334.3383230128123</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818524</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818524</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
         <v>38.67250990818524</v>
@@ -4492,16 +4494,16 @@
         <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M4" t="n">
-        <v>465.253018269215</v>
+        <v>304.4030637430761</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264751</v>
+        <v>490.0533950377328</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608016</v>
+        <v>652.7915984742829</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652794</v>
@@ -4510,28 +4512,28 @@
         <v>746.7254979846271</v>
       </c>
       <c r="R4" t="n">
-        <v>612.561488276859</v>
+        <v>746.7254979846271</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603743</v>
+        <v>663.8998814254452</v>
       </c>
       <c r="T4" t="n">
-        <v>423.1417032603743</v>
+        <v>663.8998814254452</v>
       </c>
       <c r="U4" t="n">
-        <v>233.7219182438896</v>
+        <v>663.8998814254452</v>
       </c>
       <c r="V4" t="n">
-        <v>233.7219182438896</v>
+        <v>663.8998814254452</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246699</v>
+        <v>663.8998814254452</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818524</v>
+        <v>663.8998814254452</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818524</v>
+        <v>663.8998814254452</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.8685597822223</v>
+        <v>1309.522144103823</v>
       </c>
       <c r="C5" t="n">
-        <v>867.8685597822223</v>
+        <v>1309.522144103823</v>
       </c>
       <c r="D5" t="n">
-        <v>867.8685597822223</v>
+        <v>951.2564454970729</v>
       </c>
       <c r="E5" t="n">
-        <v>867.8685597822223</v>
+        <v>951.2564454970729</v>
       </c>
       <c r="F5" t="n">
-        <v>456.8826549926148</v>
+        <v>540.2705407074653</v>
       </c>
       <c r="G5" t="n">
-        <v>40.73657830355207</v>
+        <v>124.1244640184026</v>
       </c>
       <c r="H5" t="n">
-        <v>40.73657830355207</v>
+        <v>124.1244640184026</v>
       </c>
       <c r="I5" t="n">
-        <v>40.73657830355207</v>
+        <v>40.73657830355201</v>
       </c>
       <c r="J5" t="n">
-        <v>140.306341147364</v>
+        <v>140.3063411473638</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2741230978847</v>
+        <v>340.2741230978842</v>
       </c>
       <c r="L5" t="n">
-        <v>625.2536008262823</v>
+        <v>625.2536008262809</v>
       </c>
       <c r="M5" t="n">
-        <v>974.0176169100331</v>
+        <v>974.0176169100316</v>
       </c>
       <c r="N5" t="n">
-        <v>1333.038807774405</v>
+        <v>1333.038807774403</v>
       </c>
       <c r="O5" t="n">
-        <v>1658.717076417807</v>
+        <v>1658.717076417805</v>
       </c>
       <c r="P5" t="n">
-        <v>1902.174943012952</v>
+        <v>1902.174943012949</v>
       </c>
       <c r="Q5" t="n">
-        <v>2036.828915177603</v>
+        <v>2036.8289151776</v>
       </c>
       <c r="R5" t="n">
-        <v>2036.828915177603</v>
+        <v>2036.8289151776</v>
       </c>
       <c r="S5" t="n">
-        <v>1975.670619165726</v>
+        <v>1902.07298205982</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.670619165726</v>
+        <v>1902.07298205982</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.670619165726</v>
+        <v>1902.07298205982</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.607731822156</v>
+        <v>1902.07298205982</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.607731822156</v>
+        <v>1902.07298205982</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.607731822156</v>
+        <v>1528.607223798741</v>
       </c>
       <c r="Y5" t="n">
-        <v>1254.468399846344</v>
+        <v>1309.522144103823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>483.4461322879873</v>
+        <v>448.815622260789</v>
       </c>
       <c r="C6" t="n">
-        <v>483.4461322879873</v>
+        <v>448.815622260789</v>
       </c>
       <c r="D6" t="n">
-        <v>483.4461322879873</v>
+        <v>448.815622260789</v>
       </c>
       <c r="E6" t="n">
-        <v>324.2086772825318</v>
+        <v>448.815622260789</v>
       </c>
       <c r="F6" t="n">
-        <v>177.6741193094167</v>
+        <v>302.281064287674</v>
       </c>
       <c r="G6" t="n">
-        <v>40.73657830355207</v>
+        <v>165.3435232818094</v>
       </c>
       <c r="H6" t="n">
-        <v>40.73657830355207</v>
+        <v>69.29373976906729</v>
       </c>
       <c r="I6" t="n">
-        <v>40.73657830355207</v>
+        <v>40.73657830355201</v>
       </c>
       <c r="J6" t="n">
-        <v>81.22179997517063</v>
+        <v>81.22179997517044</v>
       </c>
       <c r="K6" t="n">
-        <v>376.9432986792766</v>
+        <v>490.392901570577</v>
       </c>
       <c r="L6" t="n">
-        <v>621.3967940609018</v>
+        <v>734.846396952202</v>
       </c>
       <c r="M6" t="n">
-        <v>926.0193612170387</v>
+        <v>1039.468964108339</v>
       </c>
       <c r="N6" t="n">
-        <v>1253.113026208808</v>
+        <v>1366.562629100107</v>
       </c>
       <c r="O6" t="n">
-        <v>1530.120031543151</v>
+        <v>1643.569634434451</v>
       </c>
       <c r="P6" t="n">
-        <v>1733.109508449662</v>
+        <v>1941.08602330815</v>
       </c>
       <c r="Q6" t="n">
-        <v>2026.859916513727</v>
+        <v>2026.859916513724</v>
       </c>
       <c r="R6" t="n">
-        <v>2036.828915177603</v>
+        <v>2036.8289151776</v>
       </c>
       <c r="S6" t="n">
-        <v>1896.721042044003</v>
+        <v>1945.096262254907</v>
       </c>
       <c r="T6" t="n">
-        <v>1701.762642026395</v>
+        <v>1750.137862237299</v>
       </c>
       <c r="U6" t="n">
-        <v>1473.657003000384</v>
+        <v>1522.032223211288</v>
       </c>
       <c r="V6" t="n">
-        <v>1238.504894768641</v>
+        <v>1286.880114979545</v>
       </c>
       <c r="W6" t="n">
-        <v>984.2675380404398</v>
+        <v>1032.642758251344</v>
       </c>
       <c r="X6" t="n">
-        <v>776.416037834907</v>
+        <v>824.791258045811</v>
       </c>
       <c r="Y6" t="n">
-        <v>568.6557390699531</v>
+        <v>617.0309592808571</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.73657830355207</v>
+        <v>506.3099309331118</v>
       </c>
       <c r="C7" t="n">
-        <v>40.73657830355207</v>
+        <v>506.3099309331118</v>
       </c>
       <c r="D7" t="n">
-        <v>40.73657830355207</v>
+        <v>506.3099309331118</v>
       </c>
       <c r="E7" t="n">
-        <v>40.73657830355207</v>
+        <v>506.3099309331118</v>
       </c>
       <c r="F7" t="n">
-        <v>40.73657830355207</v>
+        <v>359.4199834352014</v>
       </c>
       <c r="G7" t="n">
-        <v>40.73657830355207</v>
+        <v>191.2355549076549</v>
       </c>
       <c r="H7" t="n">
-        <v>40.73657830355207</v>
+        <v>40.73657830355201</v>
       </c>
       <c r="I7" t="n">
-        <v>40.73657830355207</v>
+        <v>40.73657830355201</v>
       </c>
       <c r="J7" t="n">
-        <v>52.48822935537039</v>
+        <v>52.48822935537025</v>
       </c>
       <c r="K7" t="n">
-        <v>201.6366387116534</v>
+        <v>201.6366387116532</v>
       </c>
       <c r="L7" t="n">
-        <v>448.0216872905664</v>
+        <v>448.0216872905661</v>
       </c>
       <c r="M7" t="n">
-        <v>718.1892983786063</v>
+        <v>718.1892983786058</v>
       </c>
       <c r="N7" t="n">
-        <v>987.3675439511278</v>
+        <v>987.3675439511273</v>
       </c>
       <c r="O7" t="n">
-        <v>1219.980925984402</v>
+        <v>1219.980925984401</v>
       </c>
       <c r="P7" t="n">
         <v>1395.501177288494</v>
@@ -4747,28 +4749,28 @@
         <v>1433.587221206159</v>
       </c>
       <c r="R7" t="n">
-        <v>1433.587221206159</v>
+        <v>1322.102640794548</v>
       </c>
       <c r="S7" t="n">
-        <v>1433.587221206159</v>
+        <v>1244.22119649823</v>
       </c>
       <c r="T7" t="n">
-        <v>1433.587221206159</v>
+        <v>1244.22119649823</v>
       </c>
       <c r="U7" t="n">
-        <v>1144.458085682588</v>
+        <v>955.0920609746593</v>
       </c>
       <c r="V7" t="n">
-        <v>889.7735974767016</v>
+        <v>955.0920609746593</v>
       </c>
       <c r="W7" t="n">
-        <v>600.3564274397411</v>
+        <v>955.0920609746593</v>
       </c>
       <c r="X7" t="n">
-        <v>372.3668765417237</v>
+        <v>727.1025100766419</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.3850431337918</v>
+        <v>506.3099309331118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.332751740275</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.370234799863</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2334.995479147967</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2334.995479147967</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.932591804396</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.932591804396</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>2003.932591804396</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.932591804396</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="9">
@@ -4863,13 +4865,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,43 +4880,43 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605191</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919908</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>768.0567613875468</v>
+        <v>648.5734018828551</v>
       </c>
       <c r="C10" t="n">
-        <v>599.1205784596399</v>
+        <v>648.5734018828551</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>498.4567624705194</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>350.5436688881263</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>203.6537213902159</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>203.6537213902159</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1216.838891429094</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>1216.838891429094</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X10" t="n">
-        <v>988.8493405310769</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.0567613875468</v>
+        <v>648.5734018828551</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308156</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367744</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760994</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.38442316275</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731422</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5036,55 +5038,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.14006334809</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372278</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271513</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271513</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271513</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271513</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271513</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5194,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251686</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271513</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271513</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3285.887459569145</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3079.909711953368</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3079.909711953368</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3079.909711953368</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3079.909711953368</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>3079.909711953368</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271522</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>142.0249360836221</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308157</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367746</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1448.172675760995</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.384423162751</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>651.3985183731436</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5525,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3316.41471712313</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3062.884240396966</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2731.821353053395</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2379.052697783281</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.140063348091</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.000731372279</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5591,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>627.8744564335971</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
-        <v>627.8744564335971</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D19" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E19" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F19" t="n">
         <v>477.7578170212613</v>
@@ -5668,22 +5670,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5704,19 +5706,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1620.758244717992</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1366.073756512105</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="W19" t="n">
-        <v>1076.656586475145</v>
+        <v>1540.395810483355</v>
       </c>
       <c r="X19" t="n">
-        <v>848.6670355771272</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y19" t="n">
-        <v>627.8744564335971</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.52858457759</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>810.5660676371781</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>452.3003690304276</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5765,37 +5767,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3267.095534218452</v>
+        <v>3282.529458013814</v>
       </c>
       <c r="U20" t="n">
-        <v>3013.565057492288</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V20" t="n">
-        <v>2682.502170148718</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W20" t="n">
-        <v>2329.733514878603</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X20" t="n">
-        <v>1956.267756617523</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.128424641711</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.3362096043</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2175.400891308157</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.438374367746</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D23" t="n">
-        <v>1448.172675760995</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.384423162751</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>651.3985183731436</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6017,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.605821609171</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2952.140063348091</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.000731372279</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6069,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.6774975139006</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U25" t="n">
-        <v>1393.743132381101</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V25" t="n">
-        <v>1393.743132381101</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W25" t="n">
-        <v>1104.32596234414</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X25" t="n">
-        <v>1104.32596234414</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y25" t="n">
-        <v>1104.32596234414</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1127.748203495403</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C26" t="n">
-        <v>1127.748203495403</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D26" t="n">
-        <v>1127.748203495403</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E26" t="n">
-        <v>1127.748203495403</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,7 +6238,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939507</v>
@@ -6245,31 +6247,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535336</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y26" t="n">
-        <v>1514.348043559525</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6315,40 +6317,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.6774975139006</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088492</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>2533.219997888693</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.507193008249</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W28" t="n">
-        <v>1383.507193008249</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.517642110231</v>
+        <v>2057.717555372178</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.32596234414</v>
+        <v>2057.717555372178</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939214</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5422403324635</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="E29" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6482,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
@@ -6537,49 +6539,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2151.073568494536</v>
+        <v>2151.073568494537</v>
       </c>
       <c r="C31" t="n">
-        <v>1982.137385566629</v>
+        <v>1982.13738556663</v>
       </c>
       <c r="D31" t="n">
-        <v>1982.137385566629</v>
+        <v>1832.020746154295</v>
       </c>
       <c r="E31" t="n">
-        <v>1982.137385566629</v>
+        <v>1684.107652571901</v>
       </c>
       <c r="F31" t="n">
-        <v>1876.069090541939</v>
+        <v>1537.217705073991</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916658</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q31" t="n">
         <v>3325.605821609171</v>
@@ -6655,16 +6657,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V31" t="n">
-        <v>3070.921333403284</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W31" t="n">
-        <v>2781.504163366323</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X31" t="n">
-        <v>2553.514612468306</v>
+        <v>2553.514612468307</v>
       </c>
       <c r="Y31" t="n">
-        <v>2332.722033324776</v>
+        <v>2332.722033324777</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6682,40 @@
         <v>1806.438374367745</v>
       </c>
       <c r="D32" t="n">
-        <v>1448.172675760995</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.384423162751</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>651.3985183731431</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>236.3260682181396</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296686</v>
@@ -6780,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952861</v>
+        <v>1640.204086189706</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952861</v>
+        <v>1612.736483535255</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>1612.736483535255</v>
       </c>
       <c r="E34" t="n">
         <v>1464.823389952861</v>
@@ -6883,25 +6885,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435997</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005523</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U34" t="n">
-        <v>2639.355643067496</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V34" t="n">
-        <v>2384.671154861609</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W34" t="n">
-        <v>2095.253984824648</v>
+        <v>2270.634681061493</v>
       </c>
       <c r="X34" t="n">
-        <v>1867.264433926631</v>
+        <v>2042.645130163475</v>
       </c>
       <c r="Y34" t="n">
-        <v>1646.471854783101</v>
+        <v>1821.852551019945</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1590.514489367197</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C35" t="n">
-        <v>1221.551972426786</v>
+        <v>926.2736972002938</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>568.0079985935433</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,19 +6937,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3034.411630306084</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2703.348742962513</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2350.580087692399</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
-        <v>1977.114329431319</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.114329431319</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="36">
@@ -7026,7 +7028,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2283.920978451968</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C37" t="n">
-        <v>2283.920978451968</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622242</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1748.739212621464</v>
       </c>
       <c r="T37" t="n">
-        <v>3044.089480193525</v>
+        <v>1748.739212621464</v>
       </c>
       <c r="U37" t="n">
-        <v>2754.986613319168</v>
+        <v>1748.739212621464</v>
       </c>
       <c r="V37" t="n">
-        <v>2754.986613319168</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W37" t="n">
-        <v>2465.569443282207</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X37" t="n">
-        <v>2465.569443282207</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y37" t="n">
-        <v>2465.569443282207</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1881.708680670283</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C38" t="n">
-        <v>1512.746163729871</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D38" t="n">
-        <v>1154.480465123121</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E38" t="n">
-        <v>768.6922125248766</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>357.706307735269</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G38" t="n">
         <v>66.51211643218339</v>
@@ -7175,7 +7177,7 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329463</v>
@@ -7187,7 +7189,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7202,22 +7204,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.542934265599</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995485</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734405</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y38" t="n">
-        <v>2268.308520734405</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7247,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,13 +7268,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>362.8175152271508</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C40" t="n">
-        <v>362.8175152271508</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D40" t="n">
-        <v>362.8175152271508</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>362.8175152271508</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F40" t="n">
-        <v>362.8175152271508</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G40" t="n">
-        <v>195.1146786018698</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218339</v>
@@ -7336,46 +7338,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621287</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251681</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271508</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y40" t="n">
-        <v>362.8175152271508</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.341567565137</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C41" t="n">
-        <v>1343.379050624725</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D41" t="n">
-        <v>985.1133520179749</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E41" t="n">
-        <v>599.3250994197306</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.54649786615</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X41" t="n">
-        <v>2489.08073960507</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y41" t="n">
-        <v>2098.941407629259</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1611.713337450771</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C43" t="n">
-        <v>1611.713337450771</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D43" t="n">
-        <v>1611.713337450771</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E43" t="n">
-        <v>1611.713337450771</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F43" t="n">
-        <v>1464.823389952861</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>2822.32286476305</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U43" t="n">
-        <v>2533.219997888693</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V43" t="n">
-        <v>2349.912637529279</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W43" t="n">
-        <v>2060.495467492318</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X43" t="n">
-        <v>1832.505916594301</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y43" t="n">
-        <v>1611.713337450771</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1363.124011696101</v>
+        <v>1569.101759311878</v>
       </c>
       <c r="C44" t="n">
-        <v>994.1614947556889</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="D44" t="n">
-        <v>635.8957961489384</v>
+        <v>841.8735437647163</v>
       </c>
       <c r="E44" t="n">
-        <v>250.1075435506942</v>
+        <v>841.8735437647163</v>
       </c>
       <c r="F44" t="n">
-        <v>250.1075435506942</v>
+        <v>430.8876389751087</v>
       </c>
       <c r="G44" t="n">
-        <v>250.1075435506942</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218339</v>
@@ -7649,19 +7651,19 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081056</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W44" t="n">
-        <v>2513.328941997114</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X44" t="n">
-        <v>2139.863183736034</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y44" t="n">
-        <v>1749.723851760222</v>
+        <v>1955.701599376</v>
       </c>
     </row>
     <row r="45">
@@ -7743,7 +7745,7 @@
         <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>463.6594280995005</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C46" t="n">
-        <v>294.7232451715936</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D46" t="n">
-        <v>294.7232451715936</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E46" t="n">
-        <v>146.8101515892005</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F46" t="n">
-        <v>146.8101515892005</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>146.8101515892005</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>146.8101515892005</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218339</v>
@@ -7834,22 +7836,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1855.644631732273</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214135</v>
+        <v>1566.541764857916</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008248</v>
+        <v>1566.541764857916</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971288</v>
+        <v>1277.124594820955</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732703</v>
+        <v>1049.135043922938</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297402</v>
+        <v>828.3424647794079</v>
       </c>
     </row>
   </sheetData>
@@ -8140,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>145.822099510105</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>116.4012961287065</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.153582300173554</v>
+        <v>7.153582300173696</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>149.8696785365173</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>95.48172925978622</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111066</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>271.2636035596114</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>168.0688818921506</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>113.790898776169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.86658336855187</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>285.5081910261788</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.14213605696597</v>
+        <v>105.074288727013</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>168.0688818921493</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>194.8187766984384</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>202.2898471449865</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>88.65684237091008</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>145.9927856228084</v>
+        <v>161.2723701802156</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>119.6954404072908</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>168.0688818921493</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>94.35543628911151</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>256.2460639329539</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>103.3587393628239</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>187.5697153957356</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>7.099880621514529</v>
       </c>
       <c r="Y28" t="n">
-        <v>167.9048903836644</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>296.7574771839105</v>
+        <v>125.1061756880063</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.41343594848784</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>94.35543628911051</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>168.0688818921498</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>126.4919521192238</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>140.0538944707212</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25123,13 +25125,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696591</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25160,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>180.0572111198359</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>166.6308927084665</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.69711465678428</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>101.9313958891312</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>122.6394762633987</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>170.9384612922594</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>17.43847836633125</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>69.12041821276489</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>331.8898480104192</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>300.7579281643383</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>70.6633565680078</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>217.2713913766106</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>50.18995833595744</v>
       </c>
       <c r="H44" t="n">
-        <v>112.8482915399949</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292601</v>
@@ -25916,7 +25918,7 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16.85736560439121</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>148.6155320835122</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780052.2959498302</v>
+        <v>780052.2959498304</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780052.2959498302</v>
+        <v>780052.2959498303</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780052.2959498302</v>
+        <v>780052.2959498306</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780052.2959498303</v>
+        <v>780052.2959498304</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780052.2959498303</v>
+        <v>780052.2959498302</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780052.2959498302</v>
+        <v>780052.2959498304</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780052.2959498302</v>
+        <v>780052.2959498301</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780052.2959498301</v>
+        <v>780052.2959498302</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651769</v>
-      </c>
       <c r="E2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
         <v>426246.3737136505</v>
@@ -26329,22 +26331,22 @@
         <v>426246.3737136507</v>
       </c>
       <c r="H2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="I2" t="n">
+        <v>426246.3737136509</v>
+      </c>
+      <c r="J2" t="n">
+        <v>426246.3737136508</v>
+      </c>
+      <c r="K2" t="n">
         <v>426246.3737136506</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>426246.3737136507</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>426246.3737136507</v>
-      </c>
-      <c r="K2" t="n">
-        <v>426246.3737136507</v>
-      </c>
-      <c r="L2" t="n">
-        <v>426246.3737136509</v>
-      </c>
-      <c r="M2" t="n">
-        <v>426246.3737136509</v>
       </c>
       <c r="N2" t="n">
         <v>426246.3737136507</v>
@@ -26353,7 +26355,7 @@
         <v>426246.3737136508</v>
       </c>
       <c r="P2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136507</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26368,16 @@
         <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>356083.2629995344</v>
+        <v>356083.2629995335</v>
       </c>
       <c r="D3" t="n">
-        <v>133886.7361862338</v>
+        <v>133886.7361862343</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171901</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>82790.56074253598</v>
+        <v>82790.56074253589</v>
       </c>
       <c r="L3" t="n">
-        <v>33250.48899822728</v>
+        <v>33250.48899822735</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341474</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>182435.2718021068</v>
+        <v>182435.271802107</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26436,10 +26438,10 @@
         <v>13430.06689216532</v>
       </c>
       <c r="I4" t="n">
-        <v>13430.06689216537</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="J4" t="n">
-        <v>13430.06689216535</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="K4" t="n">
         <v>13430.06689216532</v>
@@ -26451,10 +26453,10 @@
         <v>13430.06689216532</v>
       </c>
       <c r="N4" t="n">
-        <v>13430.06689216535</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="O4" t="n">
-        <v>13430.06689216535</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="P4" t="n">
         <v>13430.06689216532</v>
@@ -26470,28 +26472,28 @@
         <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>82580.74337893937</v>
+        <v>82580.74337893931</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26506,7 +26508,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26522,37 +26524,37 @@
         <v>-412662.4451979949</v>
       </c>
       <c r="C6" t="n">
-        <v>-107948.1720154035</v>
+        <v>-107948.1720154029</v>
       </c>
       <c r="D6" t="n">
-        <v>141171.3668411602</v>
+        <v>141171.3668411597</v>
       </c>
       <c r="E6" t="n">
-        <v>156436.9864429019</v>
+        <v>156436.9864429016</v>
       </c>
       <c r="F6" t="n">
-        <v>338509.9662600919</v>
+        <v>338509.9662600917</v>
       </c>
       <c r="G6" t="n">
         <v>338509.9662600921</v>
       </c>
       <c r="H6" t="n">
-        <v>338509.966260092</v>
+        <v>338509.9662600923</v>
       </c>
       <c r="I6" t="n">
-        <v>338509.9662600922</v>
+        <v>338509.9662600924</v>
       </c>
       <c r="J6" t="n">
-        <v>289445.0215315476</v>
+        <v>289445.0215315477</v>
       </c>
       <c r="K6" t="n">
         <v>255719.4055175561</v>
       </c>
       <c r="L6" t="n">
-        <v>305259.4772618649</v>
+        <v>305259.4772618648</v>
       </c>
       <c r="M6" t="n">
-        <v>290957.7004666775</v>
+        <v>290957.7004666773</v>
       </c>
       <c r="N6" t="n">
         <v>338509.9662600921</v>
@@ -26561,7 +26563,7 @@
         <v>338509.9662600922</v>
       </c>
       <c r="P6" t="n">
-        <v>338509.9662600922</v>
+        <v>338509.9662600921</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26740,19 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>825.3827462495324</v>
+        <v>825.3827462495318</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26790,31 +26792,31 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>509.2072287944009</v>
+        <v>509.2072287944001</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
@@ -26826,7 +26828,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26960,16 +26962,16 @@
         <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>276.9128053366279</v>
+        <v>276.9128053366273</v>
       </c>
       <c r="D3" t="n">
-        <v>108.6821458680071</v>
+        <v>108.6821458680074</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>321.681641628081</v>
+        <v>321.6816416280803</v>
       </c>
       <c r="D4" t="n">
-        <v>131.3776033056382</v>
+        <v>131.3776033056387</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>321.6816416280811</v>
+        <v>321.6816416280808</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056382</v>
+        <v>131.3776033056385</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>321.681641628081</v>
+        <v>321.6816416280803</v>
       </c>
       <c r="L4" t="n">
-        <v>131.3776033056382</v>
+        <v>131.3776033056387</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>266.1666409393565</v>
+        <v>259.290595197645</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27470,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,16 +27511,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681412</v>
       </c>
       <c r="U3" t="n">
-        <v>148.1058858814705</v>
+        <v>38.33818124377109</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>206.4045024213493</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459977</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917639</v>
+        <v>124.7828954019062</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713044</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>280.9496712505635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>305.4930893518354</v>
+        <v>305.4930893518355</v>
       </c>
       <c r="I5" t="n">
-        <v>82.55400685770198</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>72.86166073484384</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>208.5707722909361</v>
@@ -27673,16 +27675,16 @@
         <v>251.0802031803995</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>169.3437097580857</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.17567293572112</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.08928567761467</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28.27158985086007</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>47.89146800879784</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5025842422711</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.9939868380618</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>110.6903745240869</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.3697346074943</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>198.0779304212288</v>
+        <v>120.9753005678739</v>
       </c>
       <c r="T7" t="n">
         <v>221.5860830227523</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.10263827824215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>169.5986708798001</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>105.0399896193607</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,22 +28013,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>4.702486051090602</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>101.1652388850388</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.318121592962942</v>
+        <v>3.318121592962939</v>
       </c>
       <c r="H5" t="n">
-        <v>33.98171276393173</v>
+        <v>33.98171276393171</v>
       </c>
       <c r="I5" t="n">
-        <v>127.9218827127039</v>
+        <v>127.9218827127038</v>
       </c>
       <c r="J5" t="n">
-        <v>281.6214225507387</v>
+        <v>281.6214225507385</v>
       </c>
       <c r="K5" t="n">
-        <v>422.0775095808601</v>
+        <v>422.0775095808598</v>
       </c>
       <c r="L5" t="n">
-        <v>523.6244732814998</v>
+        <v>523.6244732814995</v>
       </c>
       <c r="M5" t="n">
-        <v>582.6331181603546</v>
+        <v>582.6331181603541</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0607311363606</v>
+        <v>592.0607311363601</v>
       </c>
       <c r="O5" t="n">
-        <v>559.0661595463353</v>
+        <v>559.0661595463349</v>
       </c>
       <c r="P5" t="n">
-        <v>477.1500327200626</v>
+        <v>477.1500327200623</v>
       </c>
       <c r="Q5" t="n">
-        <v>358.3198031720771</v>
+        <v>358.3198031720769</v>
       </c>
       <c r="R5" t="n">
-        <v>208.4319555139586</v>
+        <v>208.4319555139584</v>
       </c>
       <c r="S5" t="n">
-        <v>75.61169579964312</v>
+        <v>75.61169579964306</v>
       </c>
       <c r="T5" t="n">
-        <v>14.52507727319528</v>
+        <v>14.52507727319527</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2654497274370353</v>
+        <v>0.2654497274370351</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.775351567404654</v>
+        <v>1.775351567404653</v>
       </c>
       <c r="H6" t="n">
-        <v>17.1461585588818</v>
+        <v>17.14615855888179</v>
       </c>
       <c r="I6" t="n">
-        <v>61.125043000555</v>
+        <v>61.12504300055496</v>
       </c>
       <c r="J6" t="n">
-        <v>167.7317899713319</v>
+        <v>167.7317899713318</v>
       </c>
       <c r="K6" t="n">
-        <v>286.6803449874437</v>
+        <v>286.6803449874436</v>
       </c>
       <c r="L6" t="n">
-        <v>385.4771023875765</v>
+        <v>385.4771023875762</v>
       </c>
       <c r="M6" t="n">
-        <v>449.8335967059951</v>
+        <v>449.8335967059948</v>
       </c>
       <c r="N6" t="n">
-        <v>461.7393534891606</v>
+        <v>461.7393534891603</v>
       </c>
       <c r="O6" t="n">
-        <v>422.4013003377206</v>
+        <v>422.4013003377203</v>
       </c>
       <c r="P6" t="n">
-        <v>339.0142830774731</v>
+        <v>339.0142830774728</v>
       </c>
       <c r="Q6" t="n">
-        <v>226.6220702532679</v>
+        <v>226.6220702532677</v>
       </c>
       <c r="R6" t="n">
-        <v>110.2275297727206</v>
+        <v>110.2275297727205</v>
       </c>
       <c r="S6" t="n">
-        <v>32.97637670157328</v>
+        <v>32.97637670157325</v>
       </c>
       <c r="T6" t="n">
-        <v>7.155912677389812</v>
+        <v>7.155912677389806</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1167994452239905</v>
+        <v>0.1167994452239904</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.488395116187681</v>
+        <v>1.48839511618768</v>
       </c>
       <c r="H7" t="n">
-        <v>13.23318566937776</v>
+        <v>13.23318566937775</v>
       </c>
       <c r="I7" t="n">
-        <v>44.76010040317137</v>
+        <v>44.76010040317134</v>
       </c>
       <c r="J7" t="n">
-        <v>105.2295347144691</v>
+        <v>105.229534714469</v>
       </c>
       <c r="K7" t="n">
-        <v>172.9244507716233</v>
+        <v>172.9244507716232</v>
       </c>
       <c r="L7" t="n">
-        <v>221.2837611830304</v>
+        <v>221.2837611830302</v>
       </c>
       <c r="M7" t="n">
-        <v>233.3126998947653</v>
+        <v>233.3126998947651</v>
       </c>
       <c r="N7" t="n">
-        <v>227.7650453707932</v>
+        <v>227.7650453707931</v>
       </c>
       <c r="O7" t="n">
-        <v>210.3778842407825</v>
+        <v>210.3778842407824</v>
       </c>
       <c r="P7" t="n">
-        <v>180.0146238705537</v>
+        <v>180.0146238705535</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.6327946836794</v>
+        <v>124.6327946836793</v>
       </c>
       <c r="R7" t="n">
-        <v>66.92365676967518</v>
+        <v>66.92365676967513</v>
       </c>
       <c r="S7" t="n">
-        <v>25.93866761574349</v>
+        <v>25.93866761574347</v>
       </c>
       <c r="T7" t="n">
-        <v>6.359506405529181</v>
+        <v>6.359506405529177</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0811851881556918</v>
+        <v>0.08118518815569174</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32561,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O27" t="n">
         <v>557.7086478970249</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33509,7 +33511,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33746,13 +33748,13 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,37 +33964,37 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34001,7 +34003,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34050,16 +34052,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883114</v>
@@ -34068,19 +34070,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780294</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34369,7 +34371,7 @@
         <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600382</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623191</v>
@@ -34463,10 +34465,10 @@
         <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34860,19 +34862,19 @@
         <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4872848053133</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>98.29368706161262</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100.5755180240524</v>
+        <v>100.5755180240523</v>
       </c>
       <c r="K5" t="n">
-        <v>201.9876585358796</v>
+        <v>201.9876585358793</v>
       </c>
       <c r="L5" t="n">
-        <v>287.8580583115126</v>
+        <v>287.8580583115123</v>
       </c>
       <c r="M5" t="n">
-        <v>352.2868849330819</v>
+        <v>352.2868849330814</v>
       </c>
       <c r="N5" t="n">
-        <v>362.6476675397697</v>
+        <v>362.6476675397692</v>
       </c>
       <c r="O5" t="n">
-        <v>328.9679481246485</v>
+        <v>328.9679481246482</v>
       </c>
       <c r="P5" t="n">
-        <v>245.9170369647931</v>
+        <v>245.9170369647927</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0141132976276</v>
+        <v>136.0141132976274</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.8941633046652</v>
+        <v>40.89416330466508</v>
       </c>
       <c r="K6" t="n">
-        <v>298.7085845496021</v>
+        <v>413.3041430256632</v>
       </c>
       <c r="L6" t="n">
-        <v>246.9227226077023</v>
+        <v>246.922722607702</v>
       </c>
       <c r="M6" t="n">
-        <v>307.6995627839768</v>
+        <v>307.6995627839764</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3976414058272</v>
+        <v>330.397641405827</v>
       </c>
       <c r="O6" t="n">
-        <v>279.8050558932762</v>
+        <v>279.8050558932758</v>
       </c>
       <c r="P6" t="n">
-        <v>205.0398756631428</v>
+        <v>300.5216049229288</v>
       </c>
       <c r="Q6" t="n">
-        <v>296.7175839030954</v>
+        <v>86.64029616724619</v>
       </c>
       <c r="R6" t="n">
-        <v>10.06969562007748</v>
+        <v>10.06969562007741</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.87035459779628</v>
+        <v>11.87035459779621</v>
       </c>
       <c r="K7" t="n">
-        <v>150.6549589457404</v>
+        <v>150.6549589457403</v>
       </c>
       <c r="L7" t="n">
-        <v>248.8737864433465</v>
+        <v>248.8737864433464</v>
       </c>
       <c r="M7" t="n">
-        <v>272.8965768566059</v>
+        <v>272.8965768566057</v>
       </c>
       <c r="N7" t="n">
-        <v>271.8972177500218</v>
+        <v>271.8972177500217</v>
       </c>
       <c r="O7" t="n">
-        <v>234.9630121548222</v>
+        <v>234.963012154822</v>
       </c>
       <c r="P7" t="n">
-        <v>177.2931831354472</v>
+        <v>177.293183135447</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.47075143198499</v>
+        <v>38.47075143198491</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340048</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36364,7 +36366,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302278</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
@@ -36437,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525805</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37157,7 +37159,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37394,13 +37396,13 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554014</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923318</v>
@@ -38111,10 +38113,10 @@
         <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
